--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59BCB0E-22E0-4DDA-8760-3AE1429AD5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA94EE4-E5E9-4732-9046-EC5BF3D58E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="4140" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>long</t>
   </si>
@@ -63,6 +63,38 @@
   </si>
   <si>
     <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[100:1001:1],[101:1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[102:200]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[102:-200]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[103:-200]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加士气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹药增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹药减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品减少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,13 +435,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -442,58 +475,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1002</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1003</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1004</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA94EE4-E5E9-4732-9046-EC5BF3D58E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94CF0E6-327E-424C-A979-12354740744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="5136" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>long</t>
   </si>
@@ -95,6 +95,17 @@
   </si>
   <si>
     <t>药品减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>下一个事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:101]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,6 +540,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94CF0E6-327E-424C-A979-12354740744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E71BD0C-26B5-4DEA-8BC0-6CF0161BE07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="5136" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4572" yWindow="3900" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E71BD0C-26B5-4DEA-8BC0-6CF0161BE07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AC081-D2F4-49DD-AF97-59BCE5DB17E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4572" yWindow="3900" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>long</t>
   </si>
@@ -106,6 +106,39 @@
   </si>
   <si>
     <t>[[104:101]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial02</t>
+  </si>
+  <si>
+    <t>Tutorial03</t>
+  </si>
+  <si>
+    <t>Tutorial04</t>
+  </si>
+  <si>
+    <t>[[104:202]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:203]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:204]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,11 +476,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,6 +585,62 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>111</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>113</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AC081-D2F4-49DD-AF97-59BCE5DB17E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5E67F-A1EF-407B-9BAB-861E970198DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>long</t>
   </si>
@@ -139,6 +139,102 @@
   </si>
   <si>
     <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Order your Squad to seize the bag. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ask why he is alone?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:302]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_2_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:303]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:304]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_3_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:305]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:306]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send Liu Jianxin to escort the Teenager back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:307]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_5_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_5_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let the Teenager stay at your position.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:308]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Send the Teenager back alone. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:309]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用结束事件选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,14 +572,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -641,6 +740,146 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>201</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>202</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>203</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>204</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>205</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>206</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>207</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>208</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>209</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>999</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5E67F-A1EF-407B-9BAB-861E970198DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48BEE35-9D89-4EFD-BDD9-9EA7423B7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>long</t>
   </si>
@@ -230,11 +230,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通用结束事件选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> End[ The Morale of The Medic increases by 1 Rank]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[100:1004:1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> End[The morale of all Squad members decreases by 1 Rank]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[100:1001:-1],[100:1002:-1],[100:1003:-1],[100:1004:-1],]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用结束选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> End[ Liu Jianxin is gone for 1 minute. He will reappear in the open field near the command post.]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,13 +320,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,18 +611,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,15 +907,57 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>210</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>211</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>212</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>999</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48BEE35-9D89-4EFD-BDD9-9EA7423B7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18D795-4315-4280-8360-9242EE63B303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>long</t>
   </si>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Order your Squad to seize the bag. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ask why he is alone?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Send Liu Jianxin to escort the Teenager back.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:307]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,18 +206,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Let the Teenager stay at your position.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:308]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Send the Teenager back alone. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:309]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,22 +222,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> End[ The Morale of The Medic increases by 1 Rank]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[100:1004:1]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Village_Teenager_1_6_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> End[The morale of all Squad members decreases by 1 Rank]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[100:1001:-1],[100:1002:-1],[100:1003:-1],[100:1004:-1],]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,7 +242,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> End[ Liu Jianxin is gone for 1 minute. He will reappear in the open field near the command post.]</t>
+    <t xml:space="preserve">Seize the bag. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_1_6_C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:310]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:311]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ask Liu to send him back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let Him stay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Send him back alone. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End[Liu Left]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> End[Squad Morale DOWN]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> End[Squad Morale UP]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[100:1001:1],[100:1002:1],[100:1003:1],[100:1004:1],]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,16 +336,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -784,13 +797,13 @@
         <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,13 +811,13 @@
         <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,13 +825,13 @@
         <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,13 +839,13 @@
         <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,13 +853,13 @@
         <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,13 +867,13 @@
         <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,13 +881,13 @@
         <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,13 +895,13 @@
         <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,13 +909,13 @@
         <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,13 +923,13 @@
         <v>210</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,13 +937,13 @@
         <v>211</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,26 +951,54 @@
         <v>212</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>213</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>214</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>999</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18D795-4315-4280-8360-9242EE63B303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D323062-5DB7-4A76-9382-F6D0D5DB5ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>long</t>
   </si>
@@ -287,6 +287,52 @@
   </si>
   <si>
     <t>[[100:1001:1],[100:1002:1],[100:1003:1],[100:1004:1],]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:402]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:403]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send Liu Jianxin</t>
+  </si>
+  <si>
+    <t>Send the Engineer</t>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_3_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:404]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:405]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To be continue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -990,15 +1036,85 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>301</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>302</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>303</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>304</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>305</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>999</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D323062-5DB7-4A76-9382-F6D0D5DB5ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18D795-4315-4280-8360-9242EE63B303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>long</t>
   </si>
@@ -287,52 +287,6 @@
   </si>
   <si>
     <t>[[100:1001:1],[100:1002:1],[100:1003:1],[100:1004:1],]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:402]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:403]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Send Liu Jianxin</t>
-  </si>
-  <si>
-    <t>Send the Engineer</t>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_3_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_3_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:404]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:405]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous_Mission_2_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To be continue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1036,85 +990,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>301</v>
+        <v>999</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>302</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>303</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>304</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>305</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>999</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18D795-4315-4280-8360-9242EE63B303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF0A403-F723-4B1B-BFBC-FB5820A47089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>long</t>
   </si>
@@ -287,6 +287,53 @@
   </si>
   <si>
     <t>[[100:1001:1],[100:1002:1],[100:1003:1],[100:1004:1],]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:402]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:403]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_3_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send Liu Jianxin</t>
+  </si>
+  <si>
+    <t>Send the Engineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:404]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:405]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To be continue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -990,15 +1037,85 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>301</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>302</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>303</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>304</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>305</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>999</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF0A403-F723-4B1B-BFBC-FB5820A47089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F238C2-A83F-41C3-899A-96E48117F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>long</t>
   </si>
@@ -334,6 +334,14 @@
   </si>
   <si>
     <t>To be continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用跳过选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1107,15 +1115,29 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>998</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>999</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F238C2-A83F-41C3-899A-96E48117F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D89F6-56B1-49FB-9CA8-BCE2FDE0CFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>long</t>
   </si>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:302]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Village_Teenager_1_2_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:310]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:311]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,6 +334,26 @@
   </si>
   <si>
     <t>Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_Summary_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Village_Teenager_Summary_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find out what happened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[104:302]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,21 +691,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="30.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.19921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -721,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -735,7 +747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -749,7 +761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -763,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -777,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -791,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>111</v>
       </c>
@@ -805,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>112</v>
       </c>
@@ -819,7 +831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>113</v>
       </c>
@@ -833,7 +845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>114</v>
       </c>
@@ -847,7 +859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>201</v>
       </c>
@@ -858,286 +870,314 @@
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>210</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>211</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>212</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>213</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
+        <v>215</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>216</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
         <v>301</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>302</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>302</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>303</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>304</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>303</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>305</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>304</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>305</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>998</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>998</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
         <v>999</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D89F6-56B1-49FB-9CA8-BCE2FDE0CFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9987E-68BA-457F-B157-968666FCB322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>long</t>
   </si>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:402]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dangerous_Mission_2_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +350,22 @@
   </si>
   <si>
     <t>[104:302]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_Summary_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous_Mission_Summary_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[104:402]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:406]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1060,10 +1072,10 @@
         <v>215</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>
@@ -1074,13 +1086,13 @@
         <v>216</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1094,7 +1106,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1102,13 +1114,13 @@
         <v>302</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1116,10 +1128,10 @@
         <v>303</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>74</v>
@@ -1130,13 +1142,13 @@
         <v>304</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1144,10 +1156,10 @@
         <v>305</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>30</v>
@@ -1155,13 +1167,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>998</v>
+        <v>306</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>30</v>
@@ -1169,15 +1181,43 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
+        <v>307</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>998</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
         <v>999</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9987E-68BA-457F-B157-968666FCB322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C126218F-B7AE-44A4-9B8E-14E250CB0046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[104:302]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dangerous_Mission_Summary_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,11 +357,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[104:402]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:406]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:302]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:402]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +706,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1092,7 +1092,7 @@
         <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1148,7 +1148,7 @@
         <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1170,7 +1170,7 @@
         <v>306</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>81</v>
@@ -1184,13 +1184,13 @@
         <v>307</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C126218F-B7AE-44A4-9B8E-14E250CB0046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2675696-FFD9-463B-BD72-37296046D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>long</t>
   </si>
@@ -366,6 +366,10 @@
   </si>
   <si>
     <t>[[104:402]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:310]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1022,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2675696-FFD9-463B-BD72-37296046D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD00D8-1E03-4C5F-85F7-45A8E397B4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>long</t>
   </si>
@@ -370,6 +370,22 @@
   </si>
   <si>
     <t>[[104:310]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁新笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[105:101:3]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁新对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[106:1001:1001]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,21 +723,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="1"/>
-    <col min="2" max="2" width="30.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -749,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -763,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -777,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -791,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -805,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -819,7 +835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>111</v>
       </c>
@@ -833,7 +849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>112</v>
       </c>
@@ -847,7 +863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>113</v>
       </c>
@@ -861,7 +877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>114</v>
       </c>
@@ -875,7 +891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>201</v>
       </c>
@@ -889,7 +905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -903,7 +919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>203</v>
       </c>
@@ -917,7 +933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>204</v>
       </c>
@@ -931,7 +947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>205</v>
       </c>
@@ -945,7 +961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>206</v>
       </c>
@@ -959,7 +975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>207</v>
       </c>
@@ -973,7 +989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>208</v>
       </c>
@@ -987,7 +1003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>209</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>210</v>
       </c>
@@ -1015,7 +1031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>211</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>212</v>
       </c>
@@ -1043,7 +1059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>213</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>214</v>
       </c>
@@ -1071,7 +1087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>215</v>
       </c>
@@ -1085,7 +1101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>216</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>301</v>
       </c>
@@ -1113,7 +1129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>302</v>
       </c>
@@ -1127,7 +1143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>303</v>
       </c>
@@ -1141,7 +1157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>304</v>
       </c>
@@ -1155,7 +1171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>305</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>306</v>
       </c>
@@ -1183,7 +1199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>307</v>
       </c>
@@ -1197,31 +1213,59 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <v>308</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>309</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>998</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>999</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD00D8-1E03-4C5F-85F7-45A8E397B4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC78E43-F44E-4951-909B-545CAB023771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15768" yWindow="1608" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC78E43-F44E-4951-909B-545CAB023771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2C63FB-6C3B-4EFD-A6E1-DCCC11A2DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15768" yWindow="1608" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2C63FB-6C3B-4EFD-A6E1-DCCC11A2DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76A20F-32DF-4C01-AC28-C201D6B89600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>long</t>
   </si>
@@ -386,6 +386,36 @@
   </si>
   <si>
     <t>[[106:1001:1001]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTutorial_02</t>
+  </si>
+  <si>
+    <t>NewTutorial_03</t>
+  </si>
+  <si>
+    <t>NewTutorial_04</t>
+  </si>
+  <si>
+    <t>NewTutorial_05</t>
+  </si>
+  <si>
+    <t>NewTutorial_06</t>
+  </si>
+  <si>
+    <t>NewTutorial_07</t>
+  </si>
+  <si>
+    <t>Got it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -893,304 +923,304 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>81</v>
@@ -1201,71 +1231,169 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>998</v>
+        <v>303</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <v>304</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>305</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>306</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>307</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>308</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>309</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>998</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>999</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76A20F-32DF-4C01-AC28-C201D6B89600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7BDBFA-25AD-47C6-BCE7-865FDDE154B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>long</t>
   </si>
@@ -416,6 +416,14 @@
   </si>
   <si>
     <t>Cool!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:214]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:215]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +764,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -957,10 +965,10 @@
         <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,10 +979,10 @@
         <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7BDBFA-25AD-47C6-BCE7-865FDDE154B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722611C-742E-496D-9897-07ABFAD7F019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>long</t>
   </si>
@@ -424,6 +424,14 @@
   </si>
   <si>
     <t>[[104:215]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[106:1001:1042]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[106:1001:1029]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,18 +772,18 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -803,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -817,7 +825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -831,7 +839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -845,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -859,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -873,7 +881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>111</v>
       </c>
@@ -887,7 +895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>112</v>
       </c>
@@ -901,7 +909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>113</v>
       </c>
@@ -915,7 +923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>114</v>
       </c>
@@ -929,7 +937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>115</v>
       </c>
@@ -940,10 +948,10 @@
         <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>116</v>
       </c>
@@ -954,10 +962,10 @@
         <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>117</v>
       </c>
@@ -971,7 +979,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>118</v>
       </c>
@@ -985,7 +993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>119</v>
       </c>
@@ -999,7 +1007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>120</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>121</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>201</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>202</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>204</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>205</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>206</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>207</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>208</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>209</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>210</v>
       </c>
@@ -1167,7 +1175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>211</v>
       </c>
@@ -1181,7 +1189,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>212</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>213</v>
       </c>
@@ -1209,7 +1217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>214</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>215</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>216</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>301</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>302</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>303</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>304</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>305</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>306</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>307</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>308</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>309</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>998</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>999</v>
       </c>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722611C-742E-496D-9897-07ABFAD7F019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232C5D9F-3900-414A-9FF0-67F58DF98E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t>long</t>
   </si>
@@ -427,11 +427,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[106:1001:1042]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[106:1001:1029]]</t>
+    <t>Defensive_Collapsed_3_1</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_5_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:502]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:503]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:504]]</t>
+  </si>
+  <si>
+    <t>[[104:505]]</t>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive_Collapsed_3_4_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:507]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End(Gameover)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We will stay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We should retreat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:506],[106:1001:1042]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,7 +1005,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -962,7 +1019,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1359,57 +1416,169 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>308</v>
+        <v>501</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>309</v>
+        <v>502</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>998</v>
+        <v>503</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
+        <v>504</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>505</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>506</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>507</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>508</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>308</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>309</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>998</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>999</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232C5D9F-3900-414A-9FF0-67F58DF98E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB111CB9-A6AB-42E2-9C27-82CAB4B4D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>long</t>
   </si>
@@ -489,6 +489,10 @@
   </si>
   <si>
     <t>[[104:506],[106:1001:1042]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[106:1003]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +833,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -991,7 +995,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB111CB9-A6AB-42E2-9C27-82CAB4B4D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9DDE8A-390D-4B83-9319-34B33074B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[106:1003]]</t>
+    <t>[[106:1001:1003]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -995,7 +995,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9DDE8A-390D-4B83-9319-34B33074B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BEC32-F239-47CC-A6D3-92FE0EE0B827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
   <si>
     <t>long</t>
   </si>
@@ -202,14 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:308]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:309]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:405]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dangerous_Mission_2_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,7 +480,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[106:1001:1003]]</t>
+    <t>Defensive_Collapsed_3_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:508]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:308],[106:1001:1003]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:309],[106:1001:1014]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:405],[106:1001:1029]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:312]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1003,13 +1011,13 @@
         <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,10 +1025,10 @@
         <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
@@ -1031,13 +1039,13 @@
         <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,13 +1053,13 @@
         <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,10 +1067,10 @@
         <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -1073,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>30</v>
@@ -1087,10 +1095,10 @@
         <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
@@ -1118,7 +1126,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>36</v>
@@ -1188,10 +1196,10 @@
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1202,10 +1210,10 @@
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1216,10 +1224,10 @@
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1227,13 +1235,13 @@
         <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1241,13 +1249,13 @@
         <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1255,13 +1263,13 @@
         <v>212</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1269,13 +1277,13 @@
         <v>213</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1283,13 +1291,13 @@
         <v>214</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1297,10 +1305,10 @@
         <v>215</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>30</v>
@@ -1311,13 +1319,13 @@
         <v>216</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,13 +1333,13 @@
         <v>301</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,13 +1347,13 @@
         <v>302</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,13 +1361,13 @@
         <v>303</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,13 +1375,13 @@
         <v>304</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,10 +1389,10 @@
         <v>305</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>30</v>
@@ -1395,10 +1403,10 @@
         <v>306</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>30</v>
@@ -1409,13 +1417,13 @@
         <v>307</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1423,13 +1431,13 @@
         <v>501</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1437,13 +1445,13 @@
         <v>502</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,13 +1459,13 @@
         <v>503</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,13 +1473,13 @@
         <v>504</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,13 +1487,13 @@
         <v>505</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,13 +1501,13 @@
         <v>506</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,10 +1515,10 @@
         <v>507</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -1521,68 +1529,82 @@
         <v>508</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>308</v>
+        <v>509</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>998</v>
+        <v>309</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
+        <v>998</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>999</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BEC32-F239-47CC-A6D3-92FE0EE0B827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E10E35-4CDC-42FF-82D7-DD5E2FEEBADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1932" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
   <si>
     <t>long</t>
   </si>
@@ -501,6 +501,30 @@
   </si>
   <si>
     <t>[[104:312]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时移除角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[107:1003]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加回角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[108:1003:26]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,21 +862,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -880,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -894,7 +918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -908,7 +932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -922,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -936,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -950,661 +974,689 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>111</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>112</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>113</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>115</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>117</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>118</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>119</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>120</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>121</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>201</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>202</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>203</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>204</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>205</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>206</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>207</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>208</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>209</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>210</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>211</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>212</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>213</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>214</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>215</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>216</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>301</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>302</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>303</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>304</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>305</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>306</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>307</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>501</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>502</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>503</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>504</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>503</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>504</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>505</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>506</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>507</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>508</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>509</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
+        <v>508</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>509</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>308</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>309</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>998</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>999</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E10E35-4CDC-42FF-82D7-DD5E2FEEBADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555AC248-7529-43C5-B427-760057C10ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1932" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="133">
   <si>
     <t>long</t>
   </si>
@@ -525,6 +525,18 @@
   </si>
   <si>
     <t>Option7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一个新角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[109:1005:30]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1004,69 +1016,69 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
@@ -1074,10 +1086,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>97</v>
@@ -1088,52 +1100,52 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>97</v>
@@ -1144,13 +1156,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
@@ -1158,52 +1170,52 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1214,251 +1226,251 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>30</v>
@@ -1466,197 +1478,211 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>501</v>
+        <v>307</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>308</v>
+        <v>509</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>998</v>
+        <v>309</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
+        <v>998</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>999</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555AC248-7529-43C5-B427-760057C10ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35764F07-8914-4E4D-8DFE-7B94B2BFCF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="108" yWindow="1536" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -877,7 +877,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E10E35-4CDC-42FF-82D7-DD5E2FEEBADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057F1F6-A17B-44F2-B417-FE37438E1D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1932" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
   <si>
     <t>long</t>
   </si>
@@ -525,6 +525,201 @@
   </si>
   <si>
     <t>Option7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talk to the driver.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:513]]</t>
+  </si>
+  <si>
+    <t>Ask for a scout.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S3_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E1_S3_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ask for more ammo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't make requests.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:514]]</t>
+  </si>
+  <si>
+    <t>[[104:515]]</t>
+  </si>
+  <si>
+    <t>D1E2_S1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General_Fight_Continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The fight continues...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover them!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:517]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:518]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S3_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspect the box.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank the villager.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:519]]</t>
+  </si>
+  <si>
+    <t>[[104:520]]</t>
+  </si>
+  <si>
+    <t>D1E2_S5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request medical supplies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:521]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S5_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:523]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S6_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S6_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep trying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send them on their way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:524]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:525]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:522]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[101:1],[107:1002]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The fight continues…[Morale Up]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S7S8_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S2_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow Halo to go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104,527]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:526],[107:1003]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:511],[106:1002:1062],[106:1003:1052],[106:1004:1072]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:512],[106:1002:1062],[106:1003:1052],[106:1004:1072]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,21 +1057,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -904,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -918,7 +1113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -932,7 +1127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -946,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -960,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -974,7 +1169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -988,7 +1183,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>107</v>
       </c>
@@ -1002,7 +1197,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>111</v>
       </c>
@@ -1016,7 +1211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>112</v>
       </c>
@@ -1030,7 +1225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>113</v>
       </c>
@@ -1044,7 +1239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>114</v>
       </c>
@@ -1058,7 +1253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>115</v>
       </c>
@@ -1072,7 +1267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>116</v>
       </c>
@@ -1086,7 +1281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>117</v>
       </c>
@@ -1100,7 +1295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>118</v>
       </c>
@@ -1114,7 +1309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>119</v>
       </c>
@@ -1128,7 +1323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>120</v>
       </c>
@@ -1142,7 +1337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>121</v>
       </c>
@@ -1156,7 +1351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>201</v>
       </c>
@@ -1170,7 +1365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>202</v>
       </c>
@@ -1184,7 +1379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -1198,7 +1393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>204</v>
       </c>
@@ -1212,7 +1407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>205</v>
       </c>
@@ -1226,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>206</v>
       </c>
@@ -1240,7 +1435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>207</v>
       </c>
@@ -1254,7 +1449,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>208</v>
       </c>
@@ -1268,7 +1463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>209</v>
       </c>
@@ -1282,7 +1477,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>210</v>
       </c>
@@ -1296,7 +1491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>211</v>
       </c>
@@ -1310,7 +1505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>212</v>
       </c>
@@ -1324,7 +1519,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>213</v>
       </c>
@@ -1338,7 +1533,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>214</v>
       </c>
@@ -1352,7 +1547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>215</v>
       </c>
@@ -1366,7 +1561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>216</v>
       </c>
@@ -1380,7 +1575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>301</v>
       </c>
@@ -1394,7 +1589,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>302</v>
       </c>
@@ -1408,7 +1603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>303</v>
       </c>
@@ -1422,7 +1617,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>304</v>
       </c>
@@ -1436,7 +1631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>305</v>
       </c>
@@ -1450,7 +1645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>306</v>
       </c>
@@ -1464,7 +1659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>307</v>
       </c>
@@ -1478,7 +1673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>501</v>
       </c>
@@ -1492,7 +1687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>502</v>
       </c>
@@ -1506,7 +1701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>503</v>
       </c>
@@ -1520,7 +1715,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>504</v>
       </c>
@@ -1534,7 +1729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>505</v>
       </c>
@@ -1548,7 +1743,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>506</v>
       </c>
@@ -1562,7 +1757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>507</v>
       </c>
@@ -1576,7 +1771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>508</v>
       </c>
@@ -1590,7 +1785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>509</v>
       </c>
@@ -1604,7 +1799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>308</v>
       </c>
@@ -1618,7 +1813,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>309</v>
       </c>
@@ -1632,7 +1827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>998</v>
       </c>
@@ -1646,7 +1841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>999</v>
       </c>
@@ -1658,6 +1853,258 @@
       </c>
       <c r="D56" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>510</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>511</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>512</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>513</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>514</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>515</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>516</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>517</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>518</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>519</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>520</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>521</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>522</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>523</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>524</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>525</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>526</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>527</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057F1F6-A17B-44F2-B417-FE37438E1D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB4B4A-6A8C-4F8D-961B-66CECE5F5AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="193">
   <si>
     <t>long</t>
   </si>
@@ -721,6 +721,48 @@
   <si>
     <t>[[104:512],[106:1002:1062],[106:1003:1052],[106:1004:1072]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_02</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_03</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_04</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_05</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>[[104:226]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_06</t>
+  </si>
+  <si>
+    <t>[[104:227]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_07</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_08</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_09</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_10</t>
   </si>
 </sst>
 </file>
@@ -743,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,12 +817,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1057,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2107,6 +2158,146 @@
         <v>176</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>131</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>132</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>133</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>134</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>135</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>136</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>137</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>138</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>139</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>140</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB4B4A-6A8C-4F8D-961B-66CECE5F5AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7D470-7586-4105-83D1-608D064A4703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,9 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:513]]</t>
-  </si>
-  <si>
     <t>Ask for a scout.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,12 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:514]]</t>
-  </si>
-  <si>
-    <t>[[104:515]]</t>
-  </si>
-  <si>
     <t>D1E2_S1_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:517]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1E2_S2_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,152 +604,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D1E2_S5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request medical supplies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:521]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S5_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S6_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S6_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep trying.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send them on their way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:525]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[101:1],[107:1002]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The fight continues…[Morale Up]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E2_S7S8_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1E3_S2_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow Halo to go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:512],[106:1002:1062],[106:1003:1052],[106:1004:1072]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_02</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_03</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_04</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_05</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>[[104:226]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_06</t>
+  </si>
+  <si>
+    <t>[[104:227]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_07</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_08</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_09</t>
+  </si>
+  <si>
+    <t>Tutorial2.0_10</t>
+  </si>
+  <si>
+    <t>[[104:511],[106:1002:1062],[106:1003:1052],[106:1004:1072],[105:109:1013]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:513],[105:110:1014]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:514],[105:111:1015]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:515],[105:112:1016]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:517],[105:114:1018]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[[104:519]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[[104:520]]</t>
-  </si>
-  <si>
-    <t>D1E2_S5_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request medical supplies.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:521]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E2_S5_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:523]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E2_S6_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E2_S6_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep trying.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Send them on their way.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:524]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:525]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:522]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[101:1],[107:1002]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The fight continues…[Morale Up]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E2_S7S8_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E3_S1_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E3_S2_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1E3_S2_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Allow Halo to go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep Halo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104,527]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:526],[107:1003]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:511],[106:1002:1062],[106:1003:1052],[106:1004:1072]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:512],[106:1002:1062],[106:1003:1052],[106:1004:1072]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial2.0_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial2.0_02</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_03</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_04</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_05</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>[[104:226]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial2.0_06</t>
-  </si>
-  <si>
-    <t>[[104:227]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutorial2.0_07</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_08</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_09</t>
-  </si>
-  <si>
-    <t>Tutorial2.0_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:524],[105:115:1019]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:522],[105:114:1018]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:523],[105:115:1019]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:526],[107:1003],[105:117:1021]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104,527],[105:118:1022]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1110,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1922,7 @@
         <v>131</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1931,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1942,10 +1947,10 @@
         <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,13 +1958,13 @@
         <v>513</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1967,13 +1972,13 @@
         <v>514</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1981,10 +1986,10 @@
         <v>515</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>30</v>
@@ -1995,13 +2000,13 @@
         <v>516</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,13 +2014,13 @@
         <v>517</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2023,13 +2028,13 @@
         <v>518</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2037,13 +2042,13 @@
         <v>519</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2051,13 +2056,13 @@
         <v>520</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2065,13 +2070,13 @@
         <v>521</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,13 +2084,13 @@
         <v>522</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2093,13 +2098,13 @@
         <v>523</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2107,13 +2112,13 @@
         <v>524</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2121,13 +2126,13 @@
         <v>525</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2135,13 +2140,13 @@
         <v>526</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,13 +2154,13 @@
         <v>527</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2163,7 +2168,7 @@
         <v>131</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>97</v>
@@ -2177,7 +2182,7 @@
         <v>132</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>97</v>
@@ -2191,7 +2196,7 @@
         <v>133</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>97</v>
@@ -2205,7 +2210,7 @@
         <v>134</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>97</v>
@@ -2219,13 +2224,13 @@
         <v>135</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2233,13 +2238,13 @@
         <v>136</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2247,7 +2252,7 @@
         <v>137</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>97</v>
@@ -2261,7 +2266,7 @@
         <v>138</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>97</v>
@@ -2275,7 +2280,7 @@
         <v>139</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>97</v>
@@ -2289,7 +2294,7 @@
         <v>140</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>98</v>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7D470-7586-4105-83D1-608D064A4703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F67B45-E525-4D7B-AA23-42E8646F62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="197">
   <si>
     <t>long</t>
   </si>
@@ -767,6 +767,20 @@
   </si>
   <si>
     <t>[[104,527],[105:118:1022]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Level_03</t>
+  </si>
+  <si>
+    <t>Test_Level_04</t>
+  </si>
+  <si>
+    <t>Test_Level_04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,7 +804,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,6 +823,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -822,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -831,6 +857,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1113,21 +1145,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G89" sqref="G88:G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1155,7 +1187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1169,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1183,7 +1215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1197,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1211,7 +1243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1225,7 +1257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1239,7 +1271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>107</v>
       </c>
@@ -1253,7 +1285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>111</v>
       </c>
@@ -1267,7 +1299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>112</v>
       </c>
@@ -1281,7 +1313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>113</v>
       </c>
@@ -1295,7 +1327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>114</v>
       </c>
@@ -1309,7 +1341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>115</v>
       </c>
@@ -1323,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>116</v>
       </c>
@@ -1337,7 +1369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>117</v>
       </c>
@@ -1351,7 +1383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>118</v>
       </c>
@@ -1365,7 +1397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>119</v>
       </c>
@@ -1379,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>120</v>
       </c>
@@ -1393,7 +1425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>121</v>
       </c>
@@ -1407,7 +1439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>201</v>
       </c>
@@ -1421,7 +1453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>202</v>
       </c>
@@ -1435,7 +1467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -1449,7 +1481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>204</v>
       </c>
@@ -1463,7 +1495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>205</v>
       </c>
@@ -1477,7 +1509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>206</v>
       </c>
@@ -1491,7 +1523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>207</v>
       </c>
@@ -1505,7 +1537,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>208</v>
       </c>
@@ -1519,7 +1551,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>209</v>
       </c>
@@ -1533,7 +1565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>210</v>
       </c>
@@ -1547,7 +1579,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>211</v>
       </c>
@@ -1561,7 +1593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>212</v>
       </c>
@@ -1575,7 +1607,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>213</v>
       </c>
@@ -1589,7 +1621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>214</v>
       </c>
@@ -1603,7 +1635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>215</v>
       </c>
@@ -1617,7 +1649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>216</v>
       </c>
@@ -1631,7 +1663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>301</v>
       </c>
@@ -1645,7 +1677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>302</v>
       </c>
@@ -1659,7 +1691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>303</v>
       </c>
@@ -1673,7 +1705,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>304</v>
       </c>
@@ -1687,7 +1719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>305</v>
       </c>
@@ -1701,7 +1733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>306</v>
       </c>
@@ -1715,7 +1747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>307</v>
       </c>
@@ -1729,7 +1761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>501</v>
       </c>
@@ -1743,7 +1775,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>502</v>
       </c>
@@ -1757,7 +1789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>503</v>
       </c>
@@ -1771,7 +1803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>504</v>
       </c>
@@ -1785,7 +1817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>505</v>
       </c>
@@ -1799,7 +1831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>506</v>
       </c>
@@ -1813,7 +1845,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>507</v>
       </c>
@@ -1827,7 +1859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>508</v>
       </c>
@@ -1841,7 +1873,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>509</v>
       </c>
@@ -1855,7 +1887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>308</v>
       </c>
@@ -1869,7 +1901,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>309</v>
       </c>
@@ -1883,7 +1915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>998</v>
       </c>
@@ -1897,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>999</v>
       </c>
@@ -1911,7 +1943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>510</v>
       </c>
@@ -1925,7 +1957,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>511</v>
       </c>
@@ -1939,7 +1971,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>512</v>
       </c>
@@ -1953,7 +1985,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>513</v>
       </c>
@@ -1967,7 +1999,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>514</v>
       </c>
@@ -1981,7 +2013,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>515</v>
       </c>
@@ -1995,7 +2027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>516</v>
       </c>
@@ -2009,7 +2041,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>517</v>
       </c>
@@ -2023,7 +2055,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>518</v>
       </c>
@@ -2037,7 +2069,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>519</v>
       </c>
@@ -2051,7 +2083,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>520</v>
       </c>
@@ -2065,7 +2097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>521</v>
       </c>
@@ -2079,7 +2111,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>522</v>
       </c>
@@ -2093,7 +2125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>523</v>
       </c>
@@ -2107,7 +2139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>524</v>
       </c>
@@ -2121,7 +2153,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>525</v>
       </c>
@@ -2135,7 +2167,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>526</v>
       </c>
@@ -2149,7 +2181,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>527</v>
       </c>
@@ -2163,7 +2195,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>131</v>
       </c>
@@ -2177,7 +2209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>132</v>
       </c>
@@ -2191,7 +2223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>133</v>
       </c>
@@ -2205,7 +2237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>134</v>
       </c>
@@ -2219,7 +2251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>135</v>
       </c>
@@ -2233,7 +2265,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>136</v>
       </c>
@@ -2247,7 +2279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>137</v>
       </c>
@@ -2261,7 +2293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>138</v>
       </c>
@@ -2275,7 +2307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>139</v>
       </c>
@@ -2289,7 +2321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>140</v>
       </c>
@@ -2300,6 +2332,160 @@
         <v>98</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>921</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>922</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>923</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>931</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>932</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>933</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>934</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>941</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>942</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>943</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>944</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F67B45-E525-4D7B-AA23-42E8646F62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BAD8CF-AF04-4830-90A0-B6F1BF2D7F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="200">
   <si>
     <t>long</t>
   </si>
@@ -781,6 +781,18 @@
   </si>
   <si>
     <t>Test_Level_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一个角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[109:1003:26]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G89" sqref="G88:G89"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1287,69 +1299,69 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
@@ -1357,10 +1369,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>97</v>
@@ -1371,52 +1383,52 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>97</v>
@@ -1427,13 +1439,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
@@ -1441,52 +1453,52 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1497,251 +1509,251 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>30</v>
@@ -1749,195 +1761,195 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>501</v>
+        <v>307</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>308</v>
+        <v>509</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>998</v>
+        <v>309</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>30</v>
@@ -1945,276 +1957,276 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>510</v>
+        <v>999</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
+        <v>526</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>527</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>131</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>97</v>
@@ -2225,10 +2237,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>97</v>
@@ -2239,10 +2251,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>97</v>
@@ -2253,52 +2265,52 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>97</v>
@@ -2309,10 +2321,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>97</v>
@@ -2323,27 +2335,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
+        <v>139</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>140</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>921</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>30</v>
@@ -2351,7 +2363,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>193</v>
@@ -2365,7 +2377,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>193</v>
@@ -2378,11 +2390,11 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>931</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>194</v>
+      <c r="A88" s="4">
+        <v>923</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>97</v>
@@ -2393,7 +2405,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>194</v>
@@ -2407,7 +2419,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>194</v>
@@ -2421,7 +2433,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>194</v>
@@ -2434,11 +2446,11 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>941</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>195</v>
+      <c r="A92" s="5">
+        <v>934</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>97</v>
@@ -2449,10 +2461,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>97</v>
@@ -2463,7 +2475,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>196</v>
@@ -2477,7 +2489,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>196</v>
@@ -2486,6 +2498,20 @@
         <v>97</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>944</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BAD8CF-AF04-4830-90A0-B6F1BF2D7F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A41C76-E75E-49CF-9F4C-805A45B5FAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="205">
   <si>
     <t>long</t>
   </si>
@@ -793,6 +793,26 @@
   </si>
   <si>
     <t>[[109:1003:26]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[109:1005:155]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[109:1006:103]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:922]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:932]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:942]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2368,11 +2388,11 @@
       <c r="B86" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>30</v>
+      <c r="C86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2382,11 +2402,11 @@
       <c r="B87" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>30</v>
+      <c r="D87" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2396,122 +2416,178 @@
       <c r="B88" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>931</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="A89" s="4">
+        <v>924</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>932</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="A90" s="4">
+        <v>925</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>30</v>
+      <c r="C91" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>30</v>
+      <c r="D92" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>941</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="A93" s="5">
+        <v>933</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>942</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="A94" s="5">
+        <v>934</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>943</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="A95" s="5">
+        <v>935</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
+        <v>941</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>942</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>943</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>944</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D99" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>945</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1841AF00-E57F-4681-9236-D68F69B84CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2FAF7-9C14-4876-803C-F195AFACE3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="329">
   <si>
     <t>long</t>
   </si>
@@ -956,10 +956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[107:1003]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:612]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1298,6 +1294,18 @@
   </si>
   <si>
     <t>[[107:1003],[108:1005:36,38,39]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2E4_S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The fight continues…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[108:1003:158,159,160],[108:1005:158,159,160]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1692,9 +1700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2989,7 +2999,7 @@
         <v>237</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,13 +3007,13 @@
         <v>611</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,7 +3021,7 @@
         <v>612</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>229</v>
@@ -3025,13 +3035,13 @@
         <v>613</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,13 +3049,13 @@
         <v>614</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3081,13 +3091,13 @@
         <v>621</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3095,7 +3105,7 @@
         <v>622</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>229</v>
@@ -3109,13 +3119,13 @@
         <v>623</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,13 +3133,13 @@
         <v>624</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="D102" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3137,13 +3147,13 @@
         <v>625</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3151,13 +3161,13 @@
         <v>626</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3165,13 +3175,13 @@
         <v>627</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3179,13 +3189,13 @@
         <v>628</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>237</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,127 +3209,127 @@
         <v>237</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
-        <v>701</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>273</v>
+      <c r="A108" s="5">
+        <v>631</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B109" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>237</v>
@@ -3330,10 +3340,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>237</v>
@@ -3343,372 +3353,372 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
-        <v>801</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>287</v>
+      <c r="A118" s="7">
+        <v>710</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>237</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C129" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>237</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B133" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>312</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>318</v>
-      </c>
       <c r="D137" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
+        <v>829</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
         <v>830</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B142" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
-        <v>921</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>201</v>
+      <c r="C142" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>192</v>
@@ -3717,12 +3727,12 @@
         <v>96</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>192</v>
@@ -3736,7 +3746,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>192</v>
@@ -3749,36 +3759,36 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
-        <v>931</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>202</v>
+      <c r="A147" s="3">
+        <v>925</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>193</v>
@@ -3787,12 +3797,12 @@
         <v>96</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>193</v>
@@ -3806,7 +3816,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>193</v>
@@ -3819,36 +3829,36 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>941</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>203</v>
+      <c r="A152" s="4">
+        <v>935</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>195</v>
@@ -3862,7 +3872,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>195</v>
@@ -3876,7 +3886,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>195</v>
@@ -3885,6 +3895,20 @@
         <v>96</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>945</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2FAF7-9C14-4876-803C-F195AFACE3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CC7AC-CFD4-420F-8390-8DF9A2CAD686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -988,10 +988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:614]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D2E3_S1_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1306,6 +1302,10 @@
   </si>
   <si>
     <t>[[108:1003:158,159,160],[108:1005:158,159,160]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:614],[107:1004]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="D95" sqref="D95:D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2999,7 +2999,7 @@
         <v>237</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>246</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,13 +3091,13 @@
         <v>621</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>622</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>229</v>
@@ -3119,13 +3119,13 @@
         <v>623</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3133,13 +3133,13 @@
         <v>624</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="D102" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,13 +3147,13 @@
         <v>625</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3161,13 +3161,13 @@
         <v>626</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,13 +3175,13 @@
         <v>627</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3189,13 +3189,13 @@
         <v>628</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>237</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,7 +3209,7 @@
         <v>237</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3217,13 +3217,13 @@
         <v>631</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3231,13 +3231,13 @@
         <v>701</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>702</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>229</v>
@@ -3265,7 +3265,7 @@
         <v>224</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>172</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,13 +3287,13 @@
         <v>705</v>
       </c>
       <c r="B113" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="D113" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,13 +3301,13 @@
         <v>706</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,13 +3315,13 @@
         <v>707</v>
       </c>
       <c r="B115" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="D115" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>709</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>237</v>
@@ -3357,7 +3357,7 @@
         <v>710</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>237</v>
@@ -3371,13 +3371,13 @@
         <v>801</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>802</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>229</v>
@@ -3405,7 +3405,7 @@
         <v>224</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,13 +3413,13 @@
         <v>804</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,13 +3427,13 @@
         <v>805</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="D123" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>237</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
         <v>237</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3469,13 +3469,13 @@
         <v>811</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>812</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>229</v>
@@ -3503,7 +3503,7 @@
         <v>224</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,13 +3511,13 @@
         <v>814</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,13 +3525,13 @@
         <v>815</v>
       </c>
       <c r="B130" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="D130" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,7 +3545,7 @@
         <v>237</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,13 +3567,13 @@
         <v>821</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,7 +3581,7 @@
         <v>822</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>229</v>
@@ -3601,7 +3601,7 @@
         <v>224</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3609,13 +3609,13 @@
         <v>824</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3623,13 +3623,13 @@
         <v>825</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3637,13 +3637,13 @@
         <v>826</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>224</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3682,10 +3682,10 @@
         <v>222</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,10 +3696,10 @@
         <v>223</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CC7AC-CFD4-420F-8390-8DF9A2CAD686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E398FFD5-A7E5-403D-B72C-517E4C5BC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="331">
   <si>
     <t>long</t>
   </si>
@@ -908,10 +918,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:602]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Skip Event </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,10 +946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:605]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The fight continues…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,10 +1081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:702]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:703]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1306,6 +1304,26 @@
   </si>
   <si>
     <t>[[104:614],[107:1004]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:605],[106:1003:1095],[106:1003:1109]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:602],[106:1003:1079],[106:1005:1083],[106:1004:1114]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[106:1003:1079],[106:1005:1083],[106:1004:1114]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:702],[106:1004:1126],[106:1106:1131],[106:1005:1138],[106:1004:1146]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[106:1004:1126],[106:1106:1131],[106:1005:1138],[106:1004:1146]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1702,19 +1720,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95:D96"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1756,7 +1774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1784,7 +1802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1798,7 +1816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1812,7 +1830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1826,7 +1844,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>107</v>
       </c>
@@ -1840,7 +1858,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>108</v>
       </c>
@@ -1854,7 +1872,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>111</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>112</v>
       </c>
@@ -1882,7 +1900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>113</v>
       </c>
@@ -1896,7 +1914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>114</v>
       </c>
@@ -1910,7 +1928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>115</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>116</v>
       </c>
@@ -1938,7 +1956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>117</v>
       </c>
@@ -1952,7 +1970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>118</v>
       </c>
@@ -1966,7 +1984,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>119</v>
       </c>
@@ -1980,7 +1998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>120</v>
       </c>
@@ -1994,7 +2012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>121</v>
       </c>
@@ -2008,7 +2026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>201</v>
       </c>
@@ -2022,7 +2040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>202</v>
       </c>
@@ -2036,7 +2054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>203</v>
       </c>
@@ -2050,7 +2068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>204</v>
       </c>
@@ -2064,7 +2082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>205</v>
       </c>
@@ -2078,7 +2096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>206</v>
       </c>
@@ -2092,7 +2110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>207</v>
       </c>
@@ -2106,7 +2124,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>208</v>
       </c>
@@ -2120,7 +2138,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>209</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>210</v>
       </c>
@@ -2148,7 +2166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>211</v>
       </c>
@@ -2162,7 +2180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>212</v>
       </c>
@@ -2176,7 +2194,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>213</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>214</v>
       </c>
@@ -2204,7 +2222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>215</v>
       </c>
@@ -2218,7 +2236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>216</v>
       </c>
@@ -2232,7 +2250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>301</v>
       </c>
@@ -2246,7 +2264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>302</v>
       </c>
@@ -2260,7 +2278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>303</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>304</v>
       </c>
@@ -2288,7 +2306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>305</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>306</v>
       </c>
@@ -2316,7 +2334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>307</v>
       </c>
@@ -2330,7 +2348,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>501</v>
       </c>
@@ -2344,7 +2362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>502</v>
       </c>
@@ -2358,7 +2376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>503</v>
       </c>
@@ -2372,7 +2390,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>504</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>505</v>
       </c>
@@ -2400,7 +2418,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>506</v>
       </c>
@@ -2414,7 +2432,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>507</v>
       </c>
@@ -2428,7 +2446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>508</v>
       </c>
@@ -2442,7 +2460,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>509</v>
       </c>
@@ -2456,7 +2474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>308</v>
       </c>
@@ -2470,7 +2488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>309</v>
       </c>
@@ -2484,7 +2502,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>998</v>
       </c>
@@ -2498,7 +2516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>999</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>510</v>
       </c>
@@ -2526,7 +2544,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>511</v>
       </c>
@@ -2540,7 +2558,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>512</v>
       </c>
@@ -2554,7 +2572,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>513</v>
       </c>
@@ -2568,7 +2586,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>514</v>
       </c>
@@ -2582,7 +2600,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>515</v>
       </c>
@@ -2596,7 +2614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>516</v>
       </c>
@@ -2610,7 +2628,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>517</v>
       </c>
@@ -2624,7 +2642,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>518</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>519</v>
       </c>
@@ -2652,7 +2670,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>520</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>521</v>
       </c>
@@ -2680,7 +2698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>522</v>
       </c>
@@ -2694,7 +2712,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>523</v>
       </c>
@@ -2708,7 +2726,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>524</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>525</v>
       </c>
@@ -2736,7 +2754,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>526</v>
       </c>
@@ -2750,7 +2768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>527</v>
       </c>
@@ -2764,7 +2782,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>131</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>132</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>133</v>
       </c>
@@ -2806,7 +2824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>134</v>
       </c>
@@ -2820,7 +2838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>135</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>136</v>
       </c>
@@ -2848,7 +2866,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>137</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>138</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>139</v>
       </c>
@@ -2890,7 +2908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>140</v>
       </c>
@@ -2904,7 +2922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>601</v>
       </c>
@@ -2915,10 +2933,10 @@
         <v>224</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>602</v>
       </c>
@@ -2926,13 +2944,13 @@
         <v>227</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>603</v>
       </c>
@@ -2943,38 +2961,38 @@
         <v>224</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>604</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>605</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>606</v>
       </c>
@@ -2982,13 +3000,13 @@
         <v>205</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>607</v>
       </c>
@@ -2996,69 +3014,69 @@
         <v>206</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>611</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>612</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>613</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>614</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="D96" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>615</v>
       </c>
@@ -3066,13 +3084,13 @@
         <v>207</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>616</v>
       </c>
@@ -3080,125 +3098,125 @@
         <v>208</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>621</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>622</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>623</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>624</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>625</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>626</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>627</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>628</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>629</v>
       </c>
@@ -3206,55 +3224,55 @@
         <v>209</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>631</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>701</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>702</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>703</v>
       </c>
@@ -3265,10 +3283,10 @@
         <v>224</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>704</v>
       </c>
@@ -3279,52 +3297,52 @@
         <v>172</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>705</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>706</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>707</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>708</v>
       </c>
@@ -3332,69 +3350,69 @@
         <v>212</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>709</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>710</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>801</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>802</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>803</v>
       </c>
@@ -3405,38 +3423,38 @@
         <v>224</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>804</v>
       </c>
       <c r="B122" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>805</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>806</v>
       </c>
@@ -3444,13 +3462,13 @@
         <v>214</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>807</v>
       </c>
@@ -3458,41 +3476,41 @@
         <v>215</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>811</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>812</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>813</v>
       </c>
@@ -3503,38 +3521,38 @@
         <v>224</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>814</v>
       </c>
       <c r="B129" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>815</v>
       </c>
       <c r="B130" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>816</v>
       </c>
@@ -3542,13 +3560,13 @@
         <v>217</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>817</v>
       </c>
@@ -3556,41 +3574,41 @@
         <v>218</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>821</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>822</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>823</v>
       </c>
@@ -3601,52 +3619,52 @@
         <v>224</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>824</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>825</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C137" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>826</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>827</v>
       </c>
@@ -3654,13 +3672,13 @@
         <v>220</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>828</v>
       </c>
@@ -3671,10 +3689,10 @@
         <v>224</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>829</v>
       </c>
@@ -3682,13 +3700,13 @@
         <v>222</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>830</v>
       </c>
@@ -3696,13 +3714,13 @@
         <v>223</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>921</v>
       </c>
@@ -3716,7 +3734,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>922</v>
       </c>
@@ -3730,7 +3748,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>923</v>
       </c>
@@ -3744,7 +3762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>924</v>
       </c>
@@ -3758,7 +3776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>925</v>
       </c>
@@ -3772,7 +3790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>931</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>932</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>933</v>
       </c>
@@ -3814,7 +3832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>934</v>
       </c>
@@ -3828,7 +3846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>935</v>
       </c>
@@ -3842,7 +3860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>941</v>
       </c>
@@ -3856,7 +3874,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>942</v>
       </c>
@@ -3870,7 +3888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>943</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>944</v>
       </c>
@@ -3898,7 +3916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>945</v>
       </c>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E398FFD5-A7E5-403D-B72C-517E4C5BC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151C90E-E4E1-407A-99EA-239AE904284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="333">
   <si>
     <t>long</t>
   </si>
@@ -958,10 +958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:612]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D2E2_S1_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -998,10 +994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:622]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Try to save the injured soldier</t>
   </si>
   <si>
@@ -1311,19 +1303,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:602],[106:1003:1079],[106:1005:1083],[106:1004:1114]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[106:1003:1079],[106:1005:1083],[106:1004:1114]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[104:702],[106:1004:1126],[106:1106:1131],[106:1005:1138],[106:1004:1146]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[106:1004:1126],[106:1106:1131],[106:1005:1138],[106:1004:1146]]</t>
+    <t>[[106:1003:1079],[106:1005:1083],[106:1004:1114],[105:120:1024]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:602],[105:120:1024]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:622],[105:122:1026]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[105:122:1026]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:702],[106:1004:1126],[106:1006:1131],[106:1005:1138],[106:1004:1146],[105:124:1028],[105:125,1029]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[106:1004:1126],[106:1006:1131],[106:1005:1138],[106:1004:1146],[105:124:1028],[105:125,1029]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:612],[106:1002:1079],[106:1005:1083],[106:1004:1114],[105:121:1025],[105:123:1027]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[106:1002:1079],[106:1005:1083],[106:1004:1114],[105:121:1025],[105:123:1027]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1720,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2933,7 +2941,7 @@
         <v>224</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2947,7 +2955,7 @@
         <v>228</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2989,7 +2997,7 @@
         <v>233</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3017,7 +3025,7 @@
         <v>235</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3025,13 +3033,13 @@
         <v>611</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3039,13 +3047,13 @@
         <v>612</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>228</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,13 +3061,13 @@
         <v>613</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3067,13 +3075,13 @@
         <v>614</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3109,13 +3117,13 @@
         <v>621</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3123,13 +3131,13 @@
         <v>622</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>228</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3137,13 +3145,13 @@
         <v>623</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3151,13 +3159,13 @@
         <v>624</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3165,13 +3173,13 @@
         <v>625</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3179,13 +3187,13 @@
         <v>626</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3193,13 +3201,13 @@
         <v>627</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3207,13 +3215,13 @@
         <v>628</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>235</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3227,7 +3235,7 @@
         <v>235</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3235,13 +3243,13 @@
         <v>631</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3249,10 +3257,10 @@
         <v>701</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>329</v>
@@ -3263,7 +3271,7 @@
         <v>702</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>228</v>
@@ -3283,7 +3291,7 @@
         <v>224</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,7 +3305,7 @@
         <v>172</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3305,13 +3313,13 @@
         <v>705</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,13 +3327,13 @@
         <v>706</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3333,13 +3341,13 @@
         <v>707</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3361,7 +3369,7 @@
         <v>709</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>235</v>
@@ -3375,7 +3383,7 @@
         <v>710</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>235</v>
@@ -3389,13 +3397,13 @@
         <v>801</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3403,7 +3411,7 @@
         <v>802</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>228</v>
@@ -3423,7 +3431,7 @@
         <v>224</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3431,13 +3439,13 @@
         <v>804</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3445,13 +3453,13 @@
         <v>805</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3465,7 +3473,7 @@
         <v>235</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3479,7 +3487,7 @@
         <v>235</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3487,13 +3495,13 @@
         <v>811</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3501,7 +3509,7 @@
         <v>812</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>228</v>
@@ -3521,7 +3529,7 @@
         <v>224</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3529,13 +3537,13 @@
         <v>814</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3543,13 +3551,13 @@
         <v>815</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3563,7 +3571,7 @@
         <v>235</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3585,13 +3593,13 @@
         <v>821</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3599,7 +3607,7 @@
         <v>822</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>228</v>
@@ -3619,7 +3627,7 @@
         <v>224</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3627,13 +3635,13 @@
         <v>824</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3641,13 +3649,13 @@
         <v>825</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="D137" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3655,13 +3663,13 @@
         <v>826</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>313</v>
-      </c>
       <c r="D138" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3689,7 +3697,7 @@
         <v>224</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -3700,10 +3708,10 @@
         <v>222</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3714,10 +3722,10 @@
         <v>223</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151C90E-E4E1-407A-99EA-239AE904284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C582991-FA4A-4D9D-8DEA-8F020F4277CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="10644" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -646,10 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[101:1],[107:1002]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The fight continues…[Morale Up]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,10 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:523],[105:115:1019]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:526],[107:1003],[105:117:1021]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -982,10 +972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:613]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D2E3_S1_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1295,10 +1281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:614],[107:1004]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:605],[106:1003:1095],[106:1003:1109]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1332,6 +1314,22 @@
   </si>
   <si>
     <t>[[106:1002:1079],[106:1005:1083],[106:1004:1114],[105:121:1025],[105:123:1027]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[101:1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:523],[105:115:1019],[107:1002]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:614]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:613],[107:1004]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1728,19 +1726,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1768,7 +1766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1796,7 +1794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1824,7 +1822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1852,7 +1850,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>107</v>
       </c>
@@ -1866,21 +1864,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>111</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>112</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>113</v>
       </c>
@@ -1922,7 +1920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>114</v>
       </c>
@@ -1936,7 +1934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>115</v>
       </c>
@@ -1950,7 +1948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>116</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>117</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>118</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>119</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>120</v>
       </c>
@@ -2020,7 +2018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>121</v>
       </c>
@@ -2034,7 +2032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>201</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>202</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>203</v>
       </c>
@@ -2076,7 +2074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>204</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>205</v>
       </c>
@@ -2104,7 +2102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>206</v>
       </c>
@@ -2118,7 +2116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>207</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>208</v>
       </c>
@@ -2146,7 +2144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>209</v>
       </c>
@@ -2160,7 +2158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>210</v>
       </c>
@@ -2174,7 +2172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>211</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>212</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>213</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>214</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>215</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>216</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>301</v>
       </c>
@@ -2272,7 +2270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>302</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>303</v>
       </c>
@@ -2300,7 +2298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>304</v>
       </c>
@@ -2314,7 +2312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>305</v>
       </c>
@@ -2328,7 +2326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>306</v>
       </c>
@@ -2342,7 +2340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>307</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>501</v>
       </c>
@@ -2370,7 +2368,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>502</v>
       </c>
@@ -2384,7 +2382,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>503</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>504</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>505</v>
       </c>
@@ -2426,7 +2424,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>506</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>507</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>508</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>509</v>
       </c>
@@ -2482,7 +2480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>308</v>
       </c>
@@ -2496,7 +2494,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>309</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>998</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>999</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>510</v>
       </c>
@@ -2549,10 +2547,10 @@
         <v>130</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>511</v>
       </c>
@@ -2563,10 +2561,10 @@
         <v>23</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>512</v>
       </c>
@@ -2577,10 +2575,10 @@
         <v>133</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>513</v>
       </c>
@@ -2591,10 +2589,10 @@
         <v>136</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>514</v>
       </c>
@@ -2605,10 +2603,10 @@
         <v>137</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>515</v>
       </c>
@@ -2622,7 +2620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>516</v>
       </c>
@@ -2633,10 +2631,10 @@
         <v>141</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>517</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>518</v>
       </c>
@@ -2661,10 +2659,10 @@
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>519</v>
       </c>
@@ -2675,10 +2673,10 @@
         <v>147</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>520</v>
       </c>
@@ -2692,7 +2690,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>521</v>
       </c>
@@ -2703,10 +2701,10 @@
         <v>137</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>522</v>
       </c>
@@ -2717,10 +2715,10 @@
         <v>154</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>523</v>
       </c>
@@ -2731,71 +2729,71 @@
         <v>155</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>524</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>525</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>526</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>527</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>131</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>96</v>
@@ -2804,12 +2802,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>132</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>96</v>
@@ -2818,12 +2816,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>133</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>96</v>
@@ -2832,12 +2830,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>134</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>96</v>
@@ -2846,40 +2844,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>135</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>136</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>137</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>96</v>
@@ -2888,12 +2886,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>138</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>96</v>
@@ -2902,12 +2900,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>139</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>96</v>
@@ -2916,12 +2914,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>140</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>97</v>
@@ -2930,838 +2928,838 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>601</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>602</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>603</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>604</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>605</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>606</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>607</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>611</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>612</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>613</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="D95" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>614</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="D96" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>615</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>616</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>621</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>622</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>623</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>624</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>625</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>626</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>627</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>628</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>629</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>631</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>701</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>702</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>703</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>704</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>705</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>706</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>707</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>708</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>709</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>710</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>801</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>802</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>803</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>804</v>
       </c>
       <c r="B122" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>805</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>806</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>807</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>811</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>812</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>813</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>814</v>
       </c>
       <c r="B129" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>815</v>
       </c>
       <c r="B130" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>816</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>817</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>821</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>822</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>823</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>824</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>825</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C137" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>826</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>827</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>828</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>829</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>830</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>921</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>922</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>923</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>96</v>
@@ -3770,12 +3768,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>924</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>96</v>
@@ -3784,12 +3782,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>925</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>96</v>
@@ -3798,40 +3796,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>931</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>932</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>933</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>96</v>
@@ -3840,12 +3838,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>934</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>96</v>
@@ -3854,12 +3852,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>935</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>96</v>
@@ -3868,26 +3866,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>941</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>942</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>96</v>
@@ -3896,12 +3894,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>943</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>96</v>
@@ -3910,12 +3908,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>944</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>96</v>
@@ -3924,12 +3922,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>945</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>96</v>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C582991-FA4A-4D9D-8DEA-8F020F4277CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27F8384-9BF2-4B62-A7D5-18F5A98F846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="10644" windowHeight="7968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,10 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Send them on their way.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:525]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,10 +796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:922]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[104:932]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1330,6 +1322,14 @@
   </si>
   <si>
     <t>[[104:613],[107:1004]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send Whetherall with them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[104:922],[108:1002:177]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1869,13 +1869,13 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>130</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>23</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>133</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>136</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>137</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>141</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,7 +2673,7 @@
         <v>147</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>137</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>154</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2726,10 +2726,10 @@
         <v>153</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,13 +2737,13 @@
         <v>524</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,13 +2751,13 @@
         <v>525</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="D73" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,13 +2765,13 @@
         <v>526</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,13 +2779,13 @@
         <v>527</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>131</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>96</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>96</v>
@@ -2821,7 +2821,7 @@
         <v>133</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>96</v>
@@ -2835,7 +2835,7 @@
         <v>134</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>96</v>
@@ -2849,13 +2849,13 @@
         <v>135</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,13 +2863,13 @@
         <v>136</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>137</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>96</v>
@@ -2891,7 +2891,7 @@
         <v>138</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>96</v>
@@ -2905,7 +2905,7 @@
         <v>139</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>96</v>
@@ -2919,7 +2919,7 @@
         <v>140</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>97</v>
@@ -2933,13 +2933,13 @@
         <v>601</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,13 +2947,13 @@
         <v>602</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,13 +2961,13 @@
         <v>603</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,13 +2975,13 @@
         <v>604</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,13 +2989,13 @@
         <v>605</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,13 +3003,13 @@
         <v>606</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,13 +3017,13 @@
         <v>607</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,13 +3031,13 @@
         <v>611</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,13 +3045,13 @@
         <v>612</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,13 +3059,13 @@
         <v>613</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="D95" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,13 +3073,13 @@
         <v>614</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="D96" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,13 +3087,13 @@
         <v>615</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,13 +3101,13 @@
         <v>616</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,13 +3115,13 @@
         <v>621</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,13 +3129,13 @@
         <v>622</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,13 +3143,13 @@
         <v>623</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,13 +3157,13 @@
         <v>624</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,13 +3171,13 @@
         <v>625</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,13 +3185,13 @@
         <v>626</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,13 +3199,13 @@
         <v>627</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,13 +3213,13 @@
         <v>628</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,13 +3227,13 @@
         <v>629</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,13 +3241,13 @@
         <v>631</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,13 +3255,13 @@
         <v>701</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,13 +3269,13 @@
         <v>702</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,13 +3283,13 @@
         <v>703</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,13 +3297,13 @@
         <v>704</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,13 +3311,13 @@
         <v>705</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,13 +3325,13 @@
         <v>706</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,13 +3339,13 @@
         <v>707</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,13 +3353,13 @@
         <v>708</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,13 +3367,13 @@
         <v>709</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,13 +3381,13 @@
         <v>710</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,13 +3395,13 @@
         <v>801</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,13 +3409,13 @@
         <v>802</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,13 +3423,13 @@
         <v>803</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,13 +3437,13 @@
         <v>804</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,13 +3451,13 @@
         <v>805</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,13 +3465,13 @@
         <v>806</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,13 +3479,13 @@
         <v>807</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,13 +3493,13 @@
         <v>811</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,13 +3507,13 @@
         <v>812</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,13 +3521,13 @@
         <v>813</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,13 +3535,13 @@
         <v>814</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,13 +3549,13 @@
         <v>815</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,13 +3563,13 @@
         <v>816</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,13 +3577,13 @@
         <v>817</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,13 +3591,13 @@
         <v>821</v>
       </c>
       <c r="B133" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,13 +3605,13 @@
         <v>822</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,13 +3619,13 @@
         <v>823</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,13 +3633,13 @@
         <v>824</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,13 +3647,13 @@
         <v>825</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>307</v>
-      </c>
       <c r="D137" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,13 +3661,13 @@
         <v>826</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="D138" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,13 +3675,13 @@
         <v>827</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,13 +3689,13 @@
         <v>828</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,13 +3703,13 @@
         <v>829</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,13 +3717,13 @@
         <v>830</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,13 +3731,13 @@
         <v>921</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,13 +3745,13 @@
         <v>922</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>923</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>96</v>
@@ -3773,7 +3773,7 @@
         <v>924</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>96</v>
@@ -3787,7 +3787,7 @@
         <v>925</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>96</v>
@@ -3801,13 +3801,13 @@
         <v>931</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,13 +3815,13 @@
         <v>932</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,7 +3829,7 @@
         <v>933</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>96</v>
@@ -3843,7 +3843,7 @@
         <v>934</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>96</v>
@@ -3857,7 +3857,7 @@
         <v>935</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>96</v>
@@ -3871,13 +3871,13 @@
         <v>941</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,7 +3885,7 @@
         <v>942</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>96</v>
@@ -3899,7 +3899,7 @@
         <v>943</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>96</v>
@@ -3913,7 +3913,7 @@
         <v>944</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>96</v>
@@ -3927,7 +3927,7 @@
         <v>945</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>96</v>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27F8384-9BF2-4B62-A7D5-18F5A98F846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B56053-9721-4826-AA1B-2682CAFE88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:922],[108:1002:177]</t>
+    <t>[[104:922],[108:1002:177]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/EventOption_Data.xlsx
+++ b/GameDesign/ExcelData/EventOption_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B56053-9721-4826-AA1B-2682CAFE88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C43B27-5512-4106-A7F4-326D6BB5EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[104:922],[108:1002:177]]</t>
+    <t>[[104:922],[108:1002:146]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1727,7 +1727,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
